--- a/public/assets/product_bulk_format.xlsx
+++ b/public/assets/product_bulk_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Ecommerce-Sixvaly\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.ORBACHINUJBUK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F9EB5D-5FA0-4AD8-A0EC-5436A8BFE7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37815122-70B5-40FF-9541-46D1BB9613A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="21615" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -33,83 +33,81 @@
     <t>category_id</t>
   </si>
   <si>
-    <t>sub_category_id</t>
-  </si>
-  <si>
-    <t>brand_id</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>min_qty</t>
-  </si>
-  <si>
-    <t>refundable</t>
-  </si>
-  <si>
-    <t>youtube_video_url</t>
-  </si>
-  <si>
-    <t>unit_price</t>
-  </si>
-  <si>
     <t>purchase_price</t>
   </si>
   <si>
-    <t>tax</t>
-  </si>
-  <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>discount_type</t>
-  </si>
-  <si>
     <t>current_stock</t>
   </si>
   <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>Demo Product 22</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2D-rr4gv3fk</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>hhhhh</t>
-  </si>
-  <si>
-    <t>Demo Product 23</t>
-  </si>
-  <si>
-    <t>sub_sub_category_id</t>
+    <t>publisher_id</t>
+  </si>
+  <si>
+    <t>name_bangla</t>
+  </si>
+  <si>
+    <t>writer_id</t>
+  </si>
+  <si>
+    <t>translator_id</t>
+  </si>
+  <si>
+    <t>editor_id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>published_price</t>
+  </si>
+  <si>
+    <t>stock_status</t>
+  </si>
+  <si>
+    <t>বই ১</t>
+  </si>
+  <si>
+    <t>Book 1</t>
+  </si>
+  <si>
+    <t>Text Description</t>
+  </si>
+  <si>
+    <t>97-8019-15969-0-2</t>
+  </si>
+  <si>
+    <t>বই ২</t>
+  </si>
+  <si>
+    <t>Book 2</t>
+  </si>
+  <si>
+    <t>sale_price</t>
+  </si>
+  <si>
+    <t>8,9,12</t>
+  </si>
+  <si>
+    <t>9,12</t>
+  </si>
+  <si>
+    <t>2,3,5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -123,9 +121,26 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,15 +162,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -539,180 +555,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="5" width="19" customWidth="1"/>
-    <col min="6" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="29" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="12" width="19" customWidth="1"/>
+    <col min="13" max="15" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" customWidth="1"/>
+    <col min="23" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="E2">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2">
-        <v>55</v>
-      </c>
       <c r="K2">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="L2">
+        <v>150</v>
+      </c>
+      <c r="M2">
+        <v>120</v>
+      </c>
+      <c r="N2">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>5</v>
       </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="G3">
-        <v>33</v>
-      </c>
-      <c r="H3">
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>250</v>
+      </c>
+      <c r="L3">
+        <v>300</v>
+      </c>
+      <c r="M3">
+        <v>275</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>55</v>
-      </c>
-      <c r="K3">
-        <v>59</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
       <c r="O3">
-        <v>100</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="W3" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>